--- a/project_folder/20_基本設計_BasicDesign/sample_総合Webサイト_ディレクトリマップ.xlsx
+++ b/project_folder/20_基本設計_BasicDesign/sample_総合Webサイト_ディレクトリマップ.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masay\OneDrive\ドキュメント\設計書\学習用サイト構築\ディレクトリマップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masay\work\bookshelf\doc\project_folder\20_基本設計_BasicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5270"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="14385" windowHeight="5265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -236,16 +236,6 @@
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平野 誠也</t>
-    <rPh sb="0" eb="2">
-      <t>ヒラノ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マサヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -266,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,80 +459,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -858,200 +848,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.1640625" style="1"/>
+    <col min="1" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="AO1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="AO1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="5">
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="6">
         <v>42785</v>
       </c>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="2" t="s">
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
     </row>
-    <row r="2" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="AO2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="AO2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="2" t="s">
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
     </row>
-    <row r="5" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="4" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4" t="s">
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="25"/>
     </row>
-    <row r="6" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1098,26 +1086,26 @@
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
     </row>
-    <row r="7" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1164,26 +1152,26 @@
       <c r="BE7" s="8"/>
       <c r="BF7" s="8"/>
     </row>
-    <row r="8" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1230,26 +1218,26 @@
       <c r="BE8" s="8"/>
       <c r="BF8" s="8"/>
     </row>
-    <row r="9" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="7" t="s">
         <v>15</v>
       </c>
@@ -1296,26 +1284,26 @@
       <c r="BE9" s="8"/>
       <c r="BF9" s="8"/>
     </row>
-    <row r="10" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1362,26 +1350,26 @@
       <c r="BE10" s="8"/>
       <c r="BF10" s="8"/>
     </row>
-    <row r="11" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1426,26 +1414,26 @@
       <c r="BE11" s="8"/>
       <c r="BF11" s="8"/>
     </row>
-    <row r="12" spans="1:58" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:58" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1494,6 +1482,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="AR5:BF5"/>
+    <mergeCell ref="R5:AQ5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="G8:Q8"/>
+    <mergeCell ref="G9:Q9"/>
+    <mergeCell ref="G11:Q11"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="AR12:BF12"/>
+    <mergeCell ref="R6:AQ6"/>
+    <mergeCell ref="R7:AQ7"/>
+    <mergeCell ref="R8:AQ8"/>
+    <mergeCell ref="R9:AQ9"/>
+    <mergeCell ref="R10:AQ10"/>
+    <mergeCell ref="R11:AQ11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G2:Q2"/>
+    <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AR1:AW1"/>
     <mergeCell ref="G7:Q7"/>
     <mergeCell ref="G10:Q10"/>
     <mergeCell ref="G12:Q12"/>
@@ -1503,12 +1526,6 @@
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G2:Q2"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AR1:AW1"/>
     <mergeCell ref="R12:AQ12"/>
     <mergeCell ref="AR6:BF6"/>
     <mergeCell ref="AR7:BF7"/>
@@ -1516,44 +1533,15 @@
     <mergeCell ref="AR9:BF9"/>
     <mergeCell ref="AR10:BF10"/>
     <mergeCell ref="AR11:BF11"/>
-    <mergeCell ref="AR12:BF12"/>
-    <mergeCell ref="R6:AQ6"/>
-    <mergeCell ref="R7:AQ7"/>
-    <mergeCell ref="R8:AQ8"/>
-    <mergeCell ref="R9:AQ9"/>
-    <mergeCell ref="R10:AQ10"/>
-    <mergeCell ref="R11:AQ11"/>
-    <mergeCell ref="G8:Q8"/>
-    <mergeCell ref="G9:Q9"/>
-    <mergeCell ref="G11:Q11"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="AR5:BF5"/>
-    <mergeCell ref="R5:AQ5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="R6" r:id="rId1"/>
-    <hyperlink ref="R7" r:id="rId2"/>
-    <hyperlink ref="R8" r:id="rId3"/>
-    <hyperlink ref="R9" r:id="rId4"/>
-    <hyperlink ref="R10" r:id="rId5"/>
-    <hyperlink ref="R12" r:id="rId6"/>
+    <hyperlink ref="R6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="R7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="R8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="R9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="R10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="R12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
